--- a/resposta.xlsx
+++ b/resposta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Usuario/Desktop/5_Aula_NLP (1)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Usuario/Desktop/tcc/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8761A2-57FF-AC40-8BE4-F31A256B9F34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D710AA14-C5B7-9145-8DC7-EA1DC455F281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resposta" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="136">
   <si>
     <t>FATO</t>
   </si>
@@ -81,9 +81,6 @@
     <t xml:space="preserve"> A informação veio do jornal New York Post, que trouxe a notícia em sua edição neste domingo (11/08).</t>
   </si>
   <si>
-    <t xml:space="preserve"> Apesar da polêmica sobre ser de fato um filme live-action, já que não utiliza atores em carne osso na tela, mas computação gráfica, O Rei Leão já está à frente de todas as releituras recentes do estúdio.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Relator da reforma no Senado vê tendência autoritária no presidente e diz que indicação de Eduardo para os EUA pode contaminar o cenário.</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t xml:space="preserve"> Com a reforma da Previdência sob responsabilidade do Senado, o relator da proposta na Casa, Tasso Jereissati (PSDB-CE), diz que o presidente Jair Bolsonaro (PSL) deve ficar quieto para não atrapalhar a tramitação e evitar atritos.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ajuda bastante o fato de o tema ser universal e muito fácil de compreender. Mas isso não basta. O que pesa a favor do programa criado por Jorge Furtado é ser bem escrito, dirigido e interpretado.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> “Se tem Conselho de Ética, tem que levar isso ao Conselho de Ética. Uma coisa que marque definitivamente o nome, a honra de qualquer pessoa, não só de políticos, não podem ser feitas em nome de voluntarismo. Tem que ser feita com os procedimentos estabelecidos.”.</t>
   </si>
   <si>
@@ -307,17 +301,170 @@
   </si>
   <si>
     <t>Eu acredito que você e lindo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘Não duvido que vamos privatizar coisas maiores, viu?’, diz Guedes a presidente da Petrobras. </t>
+  </si>
+  <si>
+    <t>Durante evento no Rio, Paulo Guedes brincou com Roberto Castello Branco, presidente da Petrobras, ao dizer que a privatização da Petrobras não está descartada por Jair Bolsonaro, informa a Folha.</t>
+  </si>
+  <si>
+    <t>“Vamos privatizar Correios, Eletrobras, e não duvido que vamos privatizar coisas maiores, viu, Castello?</t>
+  </si>
+  <si>
+    <t>“Eu (Guedes), durante a campanha, sempre disse que queria privatizar tudo. Minha obrigação é recompor as finanças da União.”</t>
+  </si>
+  <si>
+    <t>"E eu estou convencido de que as empresas estatais esgotaram seu ciclo de financiamento. Elas foram perdendo a capacidade de investimento e foram ficando para trás […] No caso da Petrobras, ela quase quebrou. A Eletrobras quase quebrou. Elas foram destruídas pelos governos anteriores. A Petrobras, sua recuperação, frente aos US$ 600, 700 bilhões de exploração no pré-sal, ela não tem essa capacidade de investimento.”</t>
+  </si>
+  <si>
+    <t>"Para crescer, nós precisamos de investimento privado muito forte, o que não é compatível com esses monopólios que o Estado tinha."</t>
+  </si>
+  <si>
+    <t>“Bolsonaro é um idiota ingrato que nada sabe”, diz Frota</t>
+  </si>
+  <si>
+    <t>“Ele não está preparado para o cargo para o qual foi eleito, para o qual eu, infelizmente, ajudei a elegê-lo. Eu acreditava, assim como milhões de brasileiros, que ele realmente pudesse fazer a diferença, mas não foi isso que encontrei lá. Ele acredita nas verdades criadas, nas próprias fantasias dele.”</t>
+  </si>
+  <si>
+    <t>Relatório da OCDE aponta ainda que Brasil tem uma das mais baixas taxas de pessoas com mestrado e doutorado e só um terço dos estudantes de ensino superior conclui curso no tempo previsto.</t>
+  </si>
+  <si>
+    <t>Mulheres brasileiras têm 34% mais probabilidade de se formar no ensino superior do que seus pares do sexo masculino, mas também menos chances de conseguir emprego. Essa é uma das conclusões do relatório.</t>
+  </si>
+  <si>
+    <t>O relatório traça um panorama da educação nos 36 países-membros da OCDE e em outros dez países, incluindo o Brasil - e a edição atual foca sobretudo em educação superior.</t>
+  </si>
+  <si>
+    <t>"Embora a disparidade de gênero na educação favoreça as mulheres, a situação no mercado de trabalho é ao revés", afirma o relatório, destacando que a prevalência feminina na educação superior brasileira é uma das maiores entre todos os países estudados.</t>
+  </si>
+  <si>
+    <t>Enquanto 18% dos homens brasileiros de 25 a 34 anos têm ensino superior, essa porcentagem sobe para 25% entre as mulheres da mesma faixa etária (mesmo assim, muito abaixo das médias da OCDE, de 38% para homens e 51% para mulheres, segundo dados de 2018).</t>
+  </si>
+  <si>
+    <t>Ela destaca, porém, que isso reflete um "acúmulo de disparidades" que começa muito antes do ensino superior, nas etapas básicas de ensino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O relatório olhou também para a outra ponta, o mercado de trabalho. </t>
+  </si>
+  <si>
+    <t>A conclusão é de que a empregabilidade de mulheres brasileiras de 25 a 34 anos com ensino superior é de 82% e cai para 63% entre mulheres com ensino técnico e para 45% entre mulheres sem essa capacitação.</t>
+  </si>
+  <si>
+    <t>Entre homens brasileiros, esses índices são todos mais altos: a taxa de empregabilidade dos que têm ensino superior é de 89%; de 76% dos que têm ensino técnico e 76% dos que não tem nenhuma formação superior.</t>
+  </si>
+  <si>
+    <t>"As mulheres estão significativamente hiper-representadas nos campos de educação e ciências sociais, jornalismo e informação. Já os homens são hiper-representados em campos como tecnologias da informação e da comunicação, engenharia e construção. (...) No Brasil, 25% das graduandas brasileiras escolhe estudar educação, enquanto 19% dos graduandos homens escolhe engenharia, produção e construção."</t>
+  </si>
+  <si>
+    <t>Ou seja, uma possível explicação para a dificuldade de inserção no mercado de trabalho - seja no Brasil ou em outros países em situação semelhante - é a escolha de cursos superiores, que pode levar a carreiras com empregabilidade e renda diferentes.</t>
+  </si>
+  <si>
+    <t>Mas, para Camila de Moraes, há mais motivos por trás das diferenças de emprego entre homens e mulheres.</t>
+  </si>
+  <si>
+    <t>"A área de conhecimento não é suficiente para explicar toda a disparidade de gênero em termos de taxa de emprego nem em termos de rendimento", diz a analista da OCDE.</t>
+  </si>
+  <si>
+    <t>"No Brasil especificamente, nós observamos que a taxa de emprego dos homens aumenta só um pouco com maiores níveis de escolaridade. Já para mulheres, a taxa de emprego aumenta consideravelmente - podendo ser esse um incentivo maior para elas cursarem o ensino superior. Esses são alguns que emergem dos dados, porém não é possível identificar especificamente as causas da disparidade no Brasil. Isso requereria um estudo mais aprofundado do contexto do país."</t>
+  </si>
+  <si>
+    <t>O relatório traz outros dados sobre o ensino superior do Brasil .</t>
+  </si>
+  <si>
+    <t>Só 0,8% dos brasileiros entre 25 e 34 anos têm mestrado e 0,2% têm doutorado, contra 13% e 1,1% (respectivamente) na média entre os países estudados pela OCDE (os dados, de 2018, ainda não refletem o atual contingenciamento de recursos e bolsas no ensino superior público promovido pelo governo federal).</t>
+  </si>
+  <si>
+    <t>"Em todos os países da OCDE, indivíduos com mestrado ou doutorado têm rendimento maior que aqueles com apenas o bacharelado", explica Camila de Moraes.</t>
+  </si>
+  <si>
+    <t>"O mesmo vale para a taxa de emprego. No Brasil, por exemplo, a taxa de emprego entre adultos com doutorado em 2018 era de 91%, comparado a 84% entre adultos com mestrado e 82% entre aqueles com bacharelado. Além disso, esses níveis de educação estão fortemente ligados à pesquisa e desenvolvimento do país, (importantes) para o crescimento econômico e social."</t>
+  </si>
+  <si>
+    <t>Considerando-se apenas cursos de graduação, o relatório da OCDE diz que apenas um terço dos estudantes brasileiros conclui os estudos no tempo teoricamente previsto (de quatro ou cinco anos, a depender do curso).</t>
+  </si>
+  <si>
+    <t>Para os estudantes que passam três anos adicionais no curso, essa taxa de conclusão sobe desses 33% para 50%.</t>
+  </si>
+  <si>
+    <t>"Dos estudantes restantes que não se formam nesse período, cerca de um terço continua matriculado no curso superior e dois terços abandonam o sistema sem se formar", diz o relatório.</t>
+  </si>
+  <si>
+    <t>Na última década, o número de brasileiros de 25 a 34 anos com título superior subiu de 11% para 21%. Em comparação, a média nos países estudados pela OCDE é de mais que o dobro: 44%.</t>
+  </si>
+  <si>
+    <t>"A proporção da população brasileira com ensino superior é a menor entre todos os países das OCDE (empatado com o México). Mas mesmo no México, a proporção da população com mestrado é maior que a do Brasil", afirma Moraes.</t>
+  </si>
+  <si>
+    <t>"A predominância de instituições que cobram mensalidades e o número limitado de vagas em instituições públicas criam um ambiente complexo para criadores de políticas públicas que tentem garantir que o acesso ao ensino superior não seja prejudicado pelo status socioeconômico dos estudantes."</t>
+  </si>
+  <si>
+    <t>O presidente Jair Bolsonaro referendou a declaração do ministro da Economia, Paulo Guedes, de que o Brasil pode deixar o Mercosul caso o candidato Alberto Fernández, que tem como vice a ex-presidente Cristina Kirchner na chapa, vença as eleições na Argentina e queira fechar o bloco.</t>
+  </si>
+  <si>
+    <t>"O atual candidato que está na frente na Argentina, que tem vice a Cristina Kirchner, ele já esteve visitando o Lula, já falou que é uma injustiça o Lula estar preso, já falou que quer rever o Mercosul. Então o Paulo Guedes, perfeitamente afinado comigo, por telepatia, já falou: se criar problema, o Brasil sai do Mercosul. E está avalizado, não tem problema nenhum", declarou o presidente ao deixar o Palácio da Alvorada hoje para agendas no Planalto.</t>
+  </si>
+  <si>
+    <t>Ontem, o ministro Paulo Guedes citou a possibilidade de o país deixar o Mercosul para não atrapalhar o acordo com a União Europeia. Bolsonaro disse estar disposto a conversar com Fernández, caso a chapa de Kirchner vença o pleito no país vizinho, mas destacou que o gesto precisará partir do argentino.</t>
+  </si>
+  <si>
+    <t>"Estamos dispostos, ele que vai ter que dar o sinal", declarou Bolsonaro. "Estou pronto para conversar.  Esse pessoal quando se apodera do poder não quer sair mais.</t>
+  </si>
+  <si>
+    <t>Para Bolsonaro, o mercado, em um ambiente de intensa volatilidade com o cenário econômico e político na Argentina, já deu sinais de que "não vai perdoar a esquerda" naquele país.</t>
+  </si>
+  <si>
+    <t>Eu não acredito que ele queira seguir nessa linha de liberdade e democracia.</t>
+  </si>
+  <si>
+    <t>Fernández já declarou que "não tem problema em ter problemas" com o presidente brasileiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apesar da polêmica sobre ser de FATO um filme live-action, já que não utiliza atores em carne osso na tela, mas computação gráfica, O Rei Leão já está à frente de todas as releituras recentes do estúdio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ajuda bastante o FATO de o tema ser universal e muito fácil de compreender. Mas isso não basta. O que pesa a favor do programa criado por Jorge Furtado é ser bem escrito, dirigido e interpretado.</t>
+  </si>
+  <si>
+    <t>“Foram vários os FATOres, mas o FATO de falar a verdade incomodou muito, de criticar quem não gosta [de ser criticado] e não está preparado para as críticas. Isso pesou muito para o Bolsonaro. Bolsonaro não é burro, senão ele não chegaria onde chegou, mas é um idiota ingrato que nada sabe”, afirmou o deputado.</t>
+  </si>
+  <si>
+    <t>"O rendimento de mulheres não é maior que o rendimento de homens em nenhuma área de conhecimento em nenhum país com dados disponíveis no relatório. Isso indica que outros FATOres como progressão de carreira, a natureza do trabalho (mesmo que dentro de um mesmo setor), tipos de contrato e vida familiar podem ter uma influência maior na disparidade de gênero."</t>
+  </si>
+  <si>
+    <t>"Alguns apontam, por exemplo, justamente para o FATO de homens sem ensino superior terem uma taxa de emprego maior e rendimentos mais elevados que mulheres também sem ensino superior. Dessa forma, o incentivo pra eles trabalharem ao invés de cursarem o ensino superior pode ser relativamente maior", explica Moraes.</t>
+  </si>
+  <si>
+    <t>O olavista Gustavo Reis, vazou informações nas redes socias.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -337,13 +484,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -646,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D63904B-1716-004F-AE2F-916CAEDC8375}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -659,10 +820,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -787,7 +948,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -795,7 +956,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -803,7 +964,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -811,7 +972,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -819,7 +980,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -827,7 +988,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -835,7 +996,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -843,7 +1004,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -851,7 +1012,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -859,7 +1020,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -867,7 +1028,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -875,7 +1036,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -883,7 +1044,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -891,7 +1052,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -899,7 +1060,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -907,7 +1068,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -915,7 +1076,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -923,7 +1084,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -931,7 +1092,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -939,7 +1100,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -947,7 +1108,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -955,7 +1116,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -963,7 +1124,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -971,7 +1132,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -979,7 +1140,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -987,7 +1148,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -995,7 +1156,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -1003,7 +1164,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -1011,7 +1172,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -1019,7 +1180,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -1027,7 +1188,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -1035,7 +1196,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -1043,7 +1204,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -1051,7 +1212,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -1059,7 +1220,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -1067,7 +1228,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
@@ -1075,7 +1236,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -1083,7 +1244,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -1091,7 +1252,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
@@ -1099,7 +1260,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
@@ -1107,7 +1268,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -1115,7 +1276,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -1123,7 +1284,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
@@ -1131,7 +1292,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
@@ -1139,7 +1300,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
@@ -1147,7 +1308,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
@@ -1155,7 +1316,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>1</v>
@@ -1163,7 +1324,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -1171,7 +1332,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -1179,7 +1340,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -1187,7 +1348,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -1195,7 +1356,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
@@ -1203,7 +1364,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
@@ -1211,7 +1372,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -1219,7 +1380,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
@@ -1227,7 +1388,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -1235,7 +1396,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
@@ -1243,7 +1404,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
@@ -1251,7 +1412,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>1</v>
@@ -1259,7 +1420,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
@@ -1267,7 +1428,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
@@ -1275,7 +1436,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
@@ -1283,7 +1444,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -1291,7 +1452,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
@@ -1299,7 +1460,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
@@ -1307,7 +1468,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
@@ -1315,7 +1476,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -1323,7 +1484,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
@@ -1331,7 +1492,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -1339,7 +1500,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
@@ -1347,7 +1508,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -1355,7 +1516,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -1363,7 +1524,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
@@ -1371,7 +1532,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -1379,13 +1540,361 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="53" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="320" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="118" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="131" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="79" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="118" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="118" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="222" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="92" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="209" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="261" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="183" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="92" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="209" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="131" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="66" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="92" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="118" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="157" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="235" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="92" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="92" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="40" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A95" r:id="rId1" display="https://www1.folha.uol.com.br/mercado/2019/08/eletrobras-lucra-r-55-bilhoes-no-segundo-trimestre-de-2019.shtml" xr:uid="{655A3DB6-ED6B-554D-81DA-A7E96A952D44}"/>
+    <hyperlink ref="A96" r:id="rId2" display="https://www1.folha.uol.com.br/mercado/2019/08/eletrobras-lucra-r-55-bilhoes-no-segundo-trimestre-de-2019.shtml" xr:uid="{39D59D33-5873-0A4C-AF6A-6F943FFC33F6}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>